--- a/biology/Médecine/Régime_Okinawa/Régime_Okinawa.xlsx
+++ b/biology/Médecine/Régime_Okinawa/Régime_Okinawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_Okinawa</t>
+          <t>Régime_Okinawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régime Okinawa est un mode de vie et une pratique alimentaire inspiré de la cuisine d'Okinawa, une île au large du Japon, remarquable notamment par sa forte proportion de centenaires[1].
-On y retrouve notamment le principe du hara hachi bu (腹八分?) ou hara hachi bun me (腹八分目?) : à la fin de chaque repas, l'estomac n'est rassasié qu'à 80 %[2].
-La consommation des feuilles d’Alpinia zerumbet, appelée localement gettō (月桃?) et à laquelle les habitants attribuent des propriétés médicinales, possiblement grâce à la présence de resvératrol, un antioxydant, aurait un effet sur la longévité[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime Okinawa est un mode de vie et une pratique alimentaire inspiré de la cuisine d'Okinawa, une île au large du Japon, remarquable notamment par sa forte proportion de centenaires.
+On y retrouve notamment le principe du hara hachi bu (腹八分?) ou hara hachi bun me (腹八分目?) : à la fin de chaque repas, l'estomac n'est rassasié qu'à 80 %.
+La consommation des feuilles d’Alpinia zerumbet, appelée localement gettō (月桃?) et à laquelle les habitants attribuent des propriétés médicinales, possiblement grâce à la présence de resvératrol, un antioxydant, aurait un effet sur la longévité,.
 </t>
         </is>
       </c>
